--- a/Calculo_Vel.xlsx
+++ b/Calculo_Vel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frank Velaco\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frank Velaco\Desktop\Mi_Destino_Velasco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FD6D061-899C-4D68-874E-032C9B945391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3DF956-E9A3-4203-B15C-CAA40C341DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7061E23B-075B-4163-BA07-E3A575B05EB1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Calculo de la Nota</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>En vez de sumar se resta:</t>
   </si>
 </sst>
 </file>
@@ -77,7 +80,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -111,14 +114,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,7 +455,7 @@
   <dimension ref="C3:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,16 +469,22 @@
       </c>
       <c r="D3" s="2"/>
     </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="E6">
         <f>(D6*7)/100</f>
-        <v>5.39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.25">
@@ -479,14 +504,14 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <f>E6+E7</f>
-        <v>7.7899999999999991</v>
+        <f>E6-E7</f>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E9">
         <f>ROUND(E8,0)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
